--- a/biology/Zoologie/Catella_(bivalve)/Catella_(bivalve).xlsx
+++ b/biology/Zoologie/Catella_(bivalve)/Catella_(bivalve).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catella est un genre fossile de mollusques bivalves, de la famille des Parallelodontidae (sous-famille des Grammatodontinae).
 Les différentes espèces datent du Trias au Crétacé et ont été trouvées en Europe, au Canada, en Chine et en Iran.
@@ -512,16 +524,18 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (18 octobre 2019)[2]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (18 octobre 2019):
 †Catella (Oceanopieris) Guo, 1988
-†Catella (Oceanopieris) elegans Guo[3], 1988 (syn. Catella elegans) - Carnien (Trias supérieur) du Yunnan, en Chine
+†Catella (Oceanopieris) elegans Guo, 1988 (syn. Catella elegans) - Carnien (Trias supérieur) du Yunnan, en Chine
 †Catella caterinae Parona, 1894 - Jurassique de l'Italie
-†Catella fossa Melville[4], 1956 - Toarcien (Jurassique supérieur) du Royaume Uni
-†Catella impressa Münster[5], 1841 - Trias de l'Italie et de Pologne
+†Catella fossa Melville, 1956 - Toarcien (Jurassique supérieur) du Royaume Uni
+†Catella impressa Münster, 1841 - Trias de l'Italie et de Pologne
 †Catella laticlava  Healey, 1908 (type) - Trias d'Iran
-†Macrodon (Catella) tyaughtonae McLearn[6], 1942 - Trias de la Colombie-Britannique au Canada</t>
+†Macrodon (Catella) tyaughtonae McLearn, 1942 - Trias de la Colombie-Britannique au Canada</t>
         </is>
       </c>
     </row>
